--- a/raw_data/crafting.xlsx
+++ b/raw_data/crafting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmaj\Documents\Games\Valheim\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmaj\Documents\Games\Valheim\valheim_app\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD45A8-BD89-4495-956B-CE335EDAED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E5019-7B1F-4829-A193-F7607534C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA4108D0-2DE5-47BF-A66E-93E3F5CDEA30}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7245" xr2:uid="{BA4108D0-2DE5-47BF-A66E-93E3F5CDEA30}"/>
   </bookViews>
   <sheets>
     <sheet name="crafting" sheetId="1" r:id="rId1"/>
@@ -1649,22 +1649,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2778D695-F687-44DD-AA33-64473AA441BB}">
   <dimension ref="A1:I803"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C562" sqref="C562"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2182,12 +2182,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -2202,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>129</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>129</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>129</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>129</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>129</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>135</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>135</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>312</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>312</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>312</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>312</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>312</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>312</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>312</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>312</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>312</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>398</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>398</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>398</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>398</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>398</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>398</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>398</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>398</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>398</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>399</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>399</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>399</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>399</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>399</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>399</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>399</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>399</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>399</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>105</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>105</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>105</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>105</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>105</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>105</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>52</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>52</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>52</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>106</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>106</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>106</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>62</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>62</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>62</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>62</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>62</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>107</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>132</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>387</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>387</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>387</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>77</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>77</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>77</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>77</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>77</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>79</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>79</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>79</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>79</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>400</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>400</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>400</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>400</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>400</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>400</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>400</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>400</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>14</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>14</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>14</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>81</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>81</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>81</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>81</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>81</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>81</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>81</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>81</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>81</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>81</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>81</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>81</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>83</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>83</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>83</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>83</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>83</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>83</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>83</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>83</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>83</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>83</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>83</v>
       </c>
@@ -5827,12 +5827,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>35</v>
@@ -5847,12 +5847,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>43</v>
@@ -5867,7 +5867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>397</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>397</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>397</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>141</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>141</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>141</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>141</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>141</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>141</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>141</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>141</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>141</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>142</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>142</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>142</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>142</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>142</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>142</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>142</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>142</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>142</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>112</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>112</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>112</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>112</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>112</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>112</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>112</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>112</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>112</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>112</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>112</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>112</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>63</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>63</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>63</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>63</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>72</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>72</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>72</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>72</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>72</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>72</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>72</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>72</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>120</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>120</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>120</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>120</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>120</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>120</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>120</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>120</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>120</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>120</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>120</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>269</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>269</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>269</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>269</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>269</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>269</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>269</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>269</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>269</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>11</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>11</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>11</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>11</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>150</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>150</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>150</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>150</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>150</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>150</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>114</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>114</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>114</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>114</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>114</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>114</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>114</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>114</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>114</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>114</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>114</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>114</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>125</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>125</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>125</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>125</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>125</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>125</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>125</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>125</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>125</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>125</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>125</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>125</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>125</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>125</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>125</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>125</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>100</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>100</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>100</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>100</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>100</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>100</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>100</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>100</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>100</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>100</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>100</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>100</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>100</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>100</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>100</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>100</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>122</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>122</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>122</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>122</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>122</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>122</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>122</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>122</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>122</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>122</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>122</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>122</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>171</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>171</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>171</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>95</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>95</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>95</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>95</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>95</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>95</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>95</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>95</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>95</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>95</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>95</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>95</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>46</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>46</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>46</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>46</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>46</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>46</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>46</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>46</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>65</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>65</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>65</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>65</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>65</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>65</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>67</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>67</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>67</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>67</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>67</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>67</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>67</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>67</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>67</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>67</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>67</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>67</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>169</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>169</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>169</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>395</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>395</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>395</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>395</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>102</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>102</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>102</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>102</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>102</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>102</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>102</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>37</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>37</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>37</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>37</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>37</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>37</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>110</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>110</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>110</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>110</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>110</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>110</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>110</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>110</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>110</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>110</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>110</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>110</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>110</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>40</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>40</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>40</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>40</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>40</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>40</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>31</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>31</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>31</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>123</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>123</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>123</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>123</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>123</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>123</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>123</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>123</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>123</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>123</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>123</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>123</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>123</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>123</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>123</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>123</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>94</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>94</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>94</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>94</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>94</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>94</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>94</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>94</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>94</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>50</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>50</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>50</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>50</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>50</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>50</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>50</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>50</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>50</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>136</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>136</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>136</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>136</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>136</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>136</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>93</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>93</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>93</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>93</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>93</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>93</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>61</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>61</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>61</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>61</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>61</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>61</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>61</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>61</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>90</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>90</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>90</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>90</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>90</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>90</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>90</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>90</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>90</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>90</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>90</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>90</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>90</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>89</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>89</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>89</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>89</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>89</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>89</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>89</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>89</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>89</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>89</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>89</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>89</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>137</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>137</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>137</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>137</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>137</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>137</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>386</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>386</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>386</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>55</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>55</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>55</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>55</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>55</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>55</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>55</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>55</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>55</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>55</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>55</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>55</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>55</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>115</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>115</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>115</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>115</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>115</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>115</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>115</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>115</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>115</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>115</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>115</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>115</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>117</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>117</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>117</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>117</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>117</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>117</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>117</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>117</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>117</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>117</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>117</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>117</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>117</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>396</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>396</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>390</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>390</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>390</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>393</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>393</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>393</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>393</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>108</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>108</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>108</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>108</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>108</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>108</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>108</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>108</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>108</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>108</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>139</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>139</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>139</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>139</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>139</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>139</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>139</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>139</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>139</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>392</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>392</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>392</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>104</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>104</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>104</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>104</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>104</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>104</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>104</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>104</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>104</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>104</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>104</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>104</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>104</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>104</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>104</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>104</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>138</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>138</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>138</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>138</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>138</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>138</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>99</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>99</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>99</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>99</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>99</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>99</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>99</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>99</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>99</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>99</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>99</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>99</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>99</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>99</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>99</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>99</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>119</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>119</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>119</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>119</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>119</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>119</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>119</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>119</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>119</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>127</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>127</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>127</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>127</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>127</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>127</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>127</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
         <v>127</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>127</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>143</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>143</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>143</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>143</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>143</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>143</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>143</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>143</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>143</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>143</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>143</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>143</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>146</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>146</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>146</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>146</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>146</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>146</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>146</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>146</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>146</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>146</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>146</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>146</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>148</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>148</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>148</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>148</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>148</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>148</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>69</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>69</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>69</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>69</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>69</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>69</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>69</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>69</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>69</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>69</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>69</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>69</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>69</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>69</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>69</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>44</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>44</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>44</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>44</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>44</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>27</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>27</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
         <v>34</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
         <v>34</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
         <v>388</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
         <v>12</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
         <v>12</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
         <v>12</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>12</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
         <v>12</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>12</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>12</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>12</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
         <v>12</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
         <v>13</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
         <v>13</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
         <v>13</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
         <v>13</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
         <v>13</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
         <v>13</v>
       </c>
@@ -17221,117 +17221,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="774" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="775" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="776" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="777" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="778" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="779" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="788" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="789" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="790" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="791" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="792" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="793" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="794" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="795" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="796" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="797" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="798" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="799" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="800" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="801" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="802" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="777" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="778" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="779" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="780" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="781" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="782" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="783" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="784" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="785" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="786" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="787" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="788" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="789" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="790" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="791" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="792" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="793" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="794" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="795" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="796" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="797" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="798" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="799" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="800" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="801" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="802" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="803" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G683">
     <sortCondition ref="A2:A683"/>
@@ -17345,19 +17345,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F06C5-006D-4065-9484-2007D7319EB6}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>385</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>320</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>358</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>312</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>340</v>
       </c>
@@ -17844,7 +17844,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>330</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>330</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>337</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>335</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>387</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>153</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>348</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>348</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>269</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>269</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>269</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>402</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>291</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -18360,7 +18360,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>363</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>276</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>276</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>276</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>235</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>294</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>301</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>303</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>310</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>227</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>227</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>201</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>201</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>160</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>241</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>241</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>261</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>261</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>261</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>285</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>285</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>195</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>401</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>401</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>353</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>388</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
